--- a/results table/resumed results.xlsx
+++ b/results table/resumed results.xlsx
@@ -458,29 +458,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Custom AI Model</t>
+          <t>Naive Bayes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.0 ± nan</t>
+          <t>0.99 ± 0.01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>No Technique</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Custom AI Model</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.93 ± nan</t>
+          <t>0.98 ± 0.02</t>
         </is>
       </c>
     </row>

--- a/results table/resumed results.xlsx
+++ b/results table/resumed results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,29 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Naive Bayes</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.99 ± 0.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>No Technique</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.98 ± 0.02</t>
+          <t>0.87 ± 0.06</t>
         </is>
       </c>
     </row>

--- a/results table/resumed results.xlsx
+++ b/results table/resumed results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,36 @@
           <t>F1-Score ±</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Processing Time ±</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ROC AUC ±</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Memory Usage ±</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Precision ±</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy ±</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Recall ±</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -458,12 +488,465 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.02 ± nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.71 ± nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.03 ± nan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.77 ± nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.97 ± nan</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.2 ± nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.97 ± nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.13 ± nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.97 ± nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.97 ± nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.97 ± nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.97 ± nan</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02 ± nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.78 ± nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.97 ± nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.97 ± nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.97 ± nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03 ± nan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.0 ± nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>MLP</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.87 ± 0.06</t>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.97 ± nan</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11 ± nan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.99 ± nan</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.89 ± nan</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.97 ± nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.97 ± nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.97 ± nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02 ± nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.57 ± nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.28 ± nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.56 ± nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01 ± nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.0 ± nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08 ± nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.5 ± nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1.0 ± nan</t>
         </is>
       </c>
     </row>
